--- a/biology/Zoologie/Denops_albofasciatus/Denops_albofasciatus.xlsx
+++ b/biology/Zoologie/Denops_albofasciatus/Denops_albofasciatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Denops albifasciatus est une petite espèce d'insectes de l'ordre des coléoptères et de la famille des Cleridae.
-C'est un insecte réputé utile et nécessaire aux équilibres écologiques, car petit prédateur d'insectes se développant dans le bois ou le bois mort : Bostrichidae (dont Xylopertha retusa), longicornes (tels que Trichoferus fasciculatus[1],[2]) et autres Buprestidae[1]. Son profil « tubiforme » lui permet de pénétrer dans les galeries creusées par ces insectes. Qu'il soit à l'état de larve ou adulte, il les attaque et les consomme.
-Il est pour cette raison considéré comme un bon bioindicateur (en milieu planté d'arbres)[3], voire comme auxiliaire des cultures (d'olivier, pistachier, figuier ou vigne par exemple[4],[2],[5]).
+C'est un insecte réputé utile et nécessaire aux équilibres écologiques, car petit prédateur d'insectes se développant dans le bois ou le bois mort : Bostrichidae (dont Xylopertha retusa), longicornes (tels que Trichoferus fasciculatus,) et autres Buprestidae. Son profil « tubiforme » lui permet de pénétrer dans les galeries creusées par ces insectes. Qu'il soit à l'état de larve ou adulte, il les attaque et les consomme.
+Il est pour cette raison considéré comme un bon bioindicateur (en milieu planté d'arbres), voire comme auxiliaire des cultures (d'olivier, pistachier, figuier ou vigne par exemple).
 </t>
         </is>
       </c>
